--- a/Roteiro.xlsx
+++ b/Roteiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/401cfbc9125b8458/Vinicius Teodoro/Empreender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_F25DC773A252ABDACC1048F701D94AC25ADE58FB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4FCA72A-0B77-4268-B174-5CC019AC5A0B}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="11_F25DC773A252ABDACC1048F701D94AC25ADE58FB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2B02B2F-2450-44FA-9A17-26E2A5347544}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Trade de GAP em Cripto" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
   <si>
     <t>Item</t>
   </si>
@@ -44,15 +44,9 @@
     <t>Desenvolvimento</t>
   </si>
   <si>
-    <t>Financeiro</t>
-  </si>
-  <si>
     <t>Estratégico</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Em andamento</t>
   </si>
   <si>
-    <t>Concluído</t>
-  </si>
-  <si>
     <t>Definir a estratégia</t>
   </si>
   <si>
@@ -123,6 +114,27 @@
   </si>
   <si>
     <t>Desenvolver</t>
+  </si>
+  <si>
+    <t>Definir a corretora à usar</t>
+  </si>
+  <si>
+    <t>Definir roteiro de desenvolvimento (etapas)</t>
+  </si>
+  <si>
+    <t>Volatilidade alta no mercado de criptomoedas que dá margem para ganhos entre a cotação do contrato futuro de alguma moeda e o seu spot</t>
+  </si>
+  <si>
+    <t>Se aproveitar dessa volatilidade para lucros rápidos e consistentes até que o gap se estabilize igual no mercado "padrão" (em que este gap é ínfimo)</t>
+  </si>
+  <si>
+    <t>Podemos iniciar com nosso próprio capital e deixar rodando por alguns meses. Caso continue lucrativo, pensar em captar capital de terceiros para alavancar (?)</t>
+  </si>
+  <si>
+    <t>Binance (?) (maior do mundo aparentemente)</t>
+  </si>
+  <si>
+    <t>Shortar no maior e longar no menor entre cripto spot e mesma cripto futura com prazo (tem que tomar cuidado com o funding contrário à nossa posição do futuro)</t>
   </si>
 </sst>
 </file>
@@ -612,14 +624,14 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24:I24"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -638,91 +650,106 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -730,13 +757,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +780,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,91 +806,91 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,13 +898,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -885,13 +912,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -899,13 +926,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,13 +940,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,13 +954,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,13 +968,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -955,13 +982,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -969,13 +996,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,13 +1010,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2">
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,13 +1024,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2">
         <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,13 +1038,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2">
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,13 +1052,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2">
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,13 +1066,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1063,13 +1090,13 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1089,58 +1116,91 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="2">
         <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Roteiro.xlsx
+++ b/Roteiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/401cfbc9125b8458/Vinicius Teodoro/Empreender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="11_F25DC773A252ABDACC1048F701D94AC25ADE58FB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A2B02B2F-2450-44FA-9A17-26E2A5347544}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="11_F25DC773A252ABDACC1048F701D94AC25ADE58FB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C6F83E9-C78C-450D-80CB-881597451E33}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
   <si>
     <t>Item</t>
   </si>
@@ -135,6 +135,60 @@
   </si>
   <si>
     <t>Shortar no maior e longar no menor entre cripto spot e mesma cripto futura com prazo (tem que tomar cuidado com o funding contrário à nossa posição do futuro)</t>
+  </si>
+  <si>
+    <t>Concluído</t>
+  </si>
+  <si>
+    <t>Estudar melhor a estratégia</t>
+  </si>
+  <si>
+    <t>Acompanhamento das variações de X moedas e triggers para nos avisar quais passam de uma determinada variação</t>
+  </si>
+  <si>
+    <t>Determinar quantas moedas vamos acompanhar em um único processo (pode dar gargalo por tentar capturar muitas cotações em um período curto de tempo)</t>
+  </si>
+  <si>
+    <t>Contornar possíveis falhas no processo (abriu uma posição mas a outra não por algum motivo aleatório, então já fecha a outra posição na hora, por exemplo)</t>
+  </si>
+  <si>
+    <t>Além de estudar o escopo geral da estratégia, prestar bastante atenção no funding atrelado aos contratos futuros</t>
+  </si>
+  <si>
+    <t>Determinar critério de abertura e saída das posições (market ou limit)</t>
+  </si>
+  <si>
+    <t>Determinar se o mesmo processo vai acompanhar as cotações, aberturas e fechamentos de posição (pode haver gargalo) ou é melhor separar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir se vamos operar apenas quando o funding estiver à nosso favor </t>
+  </si>
+  <si>
+    <t>Abertura de posições baseado nos critérios e estratégias definidos anteriormente</t>
+  </si>
+  <si>
+    <t>Fechamento de posições baseado nos critérios e estratégias definidos anteriormente</t>
+  </si>
+  <si>
+    <t>Determinar qual valor máximo do total vamos deixar em posições abertas</t>
+  </si>
+  <si>
+    <t>Determinar qual variação mínima vamos operar (podemos até em um segundo MVP aplicar uma I.A)</t>
+  </si>
+  <si>
+    <t>Determinar valor/percentual de abertura das posições (podemos até em um segundo MVP aplicar uma I.A)</t>
+  </si>
+  <si>
+    <t>Testar/homologar produto</t>
+  </si>
+  <si>
+    <t>Definir periodo de homologação do produto</t>
+  </si>
+  <si>
+    <t>Pensar em melhorias ou apenas execução constante do produto</t>
+  </si>
+  <si>
+    <t>Pensar em comercialização do produto ou apenas uso interno (levando em consideração liquidez que talvez não seja tão grande)</t>
   </si>
 </sst>
 </file>
@@ -178,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -186,11 +240,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -265,43 +365,6 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -316,42 +379,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB082AAC-C278-4880-A5F7-901F624AB0A1}" name="Table13" displayName="Table13" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB082AAC-C278-4880-A5F7-901F624AB0A1}" name="Table13" displayName="Table13" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:E1048575" xr:uid="{B76C4A21-C23F-43F1-A75D-443098D30B5C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
+    <sortCondition ref="D2:D19"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7E362530-FE11-4609-96C2-4D4754FAAD56}" name="Setor" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{74FA6A95-FFF3-4DFC-88A9-F6BB1F046C3F}" name="Item" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{30495E9F-BA0B-42AD-878A-751F64C0FB9C}" name="Definição" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{5715F9D4-D694-4063-91D7-2D9B5690668A}" name="Prioridade" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{94E622DD-91CD-4E27-85B7-DC3E5CB096F8}" name="Status" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{7E362530-FE11-4609-96C2-4D4754FAAD56}" name="Setor" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{74FA6A95-FFF3-4DFC-88A9-F6BB1F046C3F}" name="Item" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{30495E9F-BA0B-42AD-878A-751F64C0FB9C}" name="Definição" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5715F9D4-D694-4063-91D7-2D9B5690668A}" name="Prioridade" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{94E622DD-91CD-4E27-85B7-DC3E5CB096F8}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C87D830-9A4C-4525-9B88-B343A6753889}" name="Table1" displayName="Table1" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C87D830-9A4C-4525-9B88-B343A6753889}" name="Table1" displayName="Table1" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E1048575" xr:uid="{2027FC26-B40F-4E27-9854-B90148E1CCB8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A8EB01FC-AC68-4F72-AB16-3FDD26F8FCBB}" name="Setor" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9735AE66-1EAD-41E9-8511-463C7CA19DF9}" name="Item" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{17832ABA-504D-4632-83DC-CEE8DD03DCDC}" name="Definição" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{68F7DEEB-99C4-4B2C-B79F-43147320C669}" name="Prioridade" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{0F161DDE-052E-49DA-9AC2-7C3D428E7EC8}" name="Status" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{A8EB01FC-AC68-4F72-AB16-3FDD26F8FCBB}" name="Setor" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{9735AE66-1EAD-41E9-8511-463C7CA19DF9}" name="Item" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{17832ABA-504D-4632-83DC-CEE8DD03DCDC}" name="Definição" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{68F7DEEB-99C4-4B2C-B79F-43147320C669}" name="Prioridade" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{0F161DDE-052E-49DA-9AC2-7C3D428E7EC8}" name="Status" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2896D8C-7A28-4064-B901-12234F3C146E}" name="Table14" displayName="Table14" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2896D8C-7A28-4064-B901-12234F3C146E}" name="Table14" displayName="Table14" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E1048575" xr:uid="{8B1F751B-57C7-4794-A975-E4E322C91954}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{41090F45-4127-431B-A160-4308CAB3B486}" name="Setor" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8531A761-C82A-4FBA-81F6-9973E2E461CE}" name="Item" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D48E01E9-5395-4AD4-9D1A-02E027EE1F65}" name="Definição" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A534D871-14B8-490A-BF9B-4CC490253B32}" name="Prioridade" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{881EC826-42FB-4909-B471-8BA46A500C8C}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{41090F45-4127-431B-A160-4308CAB3B486}" name="Setor" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8531A761-C82A-4FBA-81F6-9973E2E461CE}" name="Item" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{D48E01E9-5395-4AD4-9D1A-02E027EE1F65}" name="Definição" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A534D871-14B8-490A-BF9B-4CC490253B32}" name="Prioridade" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{881EC826-42FB-4909-B471-8BA46A500C8C}" name="Status" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,149 +686,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D5F1BC-F2D8-4DE2-A43D-B82F076D4E3B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="144.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" style="5" customWidth="1"/>
+    <col min="3" max="3" width="125.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="5">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Roteiro.xlsx
+++ b/Roteiro.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/401cfbc9125b8458/Vinicius Teodoro/Empreender/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="11_F25DC773A252ABDACC1048F701D94AC25ADE58FB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C6F83E9-C78C-450D-80CB-881597451E33}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141529EF-B11C-4D6C-BBFA-3177BFF7C398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1395" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1. Trade de GAP em Cripto" sheetId="2" r:id="rId1"/>
-    <sheet name="2. Opção binária" sheetId="3" r:id="rId2"/>
-    <sheet name="3. Rede social profissional" sheetId="4" r:id="rId3"/>
+    <sheet name="1. D&amp;A" sheetId="5" r:id="rId1"/>
+    <sheet name="2. Trade de GAP em Cripto" sheetId="2" r:id="rId2"/>
+    <sheet name="3. Opção binária" sheetId="3" r:id="rId3"/>
+    <sheet name="4. Rede social profissional" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="65">
   <si>
     <t>Item</t>
   </si>
@@ -189,6 +190,39 @@
   </si>
   <si>
     <t>Pensar em comercialização do produto ou apenas uso interno (levando em consideração liquidez que talvez não seja tão grande)</t>
+  </si>
+  <si>
+    <t>Definir problema</t>
+  </si>
+  <si>
+    <t>Definir propósito</t>
+  </si>
+  <si>
+    <t>Definir nome da marca</t>
+  </si>
+  <si>
+    <t>Sonhar alto: Pensar em escopo grandioso daqui X anos - (para ter um norte)</t>
+  </si>
+  <si>
+    <t>Definir escopo de atuação (iniciar com MVP) - Só dashboard, PaaS, SaaS, Consultoria etc</t>
+  </si>
+  <si>
+    <t>Definir pré-requisitos para início de piloto</t>
+  </si>
+  <si>
+    <t>Definir metas/deadlines para entrega dos pré-requisitos</t>
+  </si>
+  <si>
+    <t>Definir metas/deadlines para piloto do 1º MVP</t>
+  </si>
+  <si>
+    <t>Definir slogan/branding inicial</t>
+  </si>
+  <si>
+    <t>Definir público alvo</t>
+  </si>
+  <si>
+    <t>Definir funções e responsabilidades</t>
   </si>
 </sst>
 </file>
@@ -253,7 +287,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="28">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -277,21 +326,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -365,6 +399,43 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -379,23 +450,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB082AAC-C278-4880-A5F7-901F624AB0A1}" name="Table13" displayName="Table13" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:E1048575" xr:uid="{B76C4A21-C23F-43F1-A75D-443098D30B5C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
-    <sortCondition ref="D2:D19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{39BF63D1-3454-4C2F-9F50-32B253AD5E8E}" name="Table135" displayName="Table135" ref="A1:E1048574" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1048574" xr:uid="{B76C4A21-C23F-43F1-A75D-443098D30B5C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
+    <sortCondition ref="D2:D18"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7E362530-FE11-4609-96C2-4D4754FAAD56}" name="Setor" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{74FA6A95-FFF3-4DFC-88A9-F6BB1F046C3F}" name="Item" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{30495E9F-BA0B-42AD-878A-751F64C0FB9C}" name="Definição" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{5715F9D4-D694-4063-91D7-2D9B5690668A}" name="Prioridade" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{94E622DD-91CD-4E27-85B7-DC3E5CB096F8}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{61C339D5-2D1D-4ECF-AA38-106DB0169AFB}" name="Setor" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{456BEE72-A2F5-472E-9128-5C9FD23D8DF3}" name="Item" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E011F8F2-D839-452F-8D63-9CA13AA0F695}" name="Definição" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{96352356-0F0E-48BC-B316-B5EA436F6567}" name="Prioridade" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{525E6D54-C19C-4E49-924B-1F2B5D8CF0EB}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB082AAC-C278-4880-A5F7-901F624AB0A1}" name="Table13" displayName="Table13" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:E1048575" xr:uid="{B76C4A21-C23F-43F1-A75D-443098D30B5C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
+    <sortCondition ref="D2:D19"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7E362530-FE11-4609-96C2-4D4754FAAD56}" name="Setor" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{74FA6A95-FFF3-4DFC-88A9-F6BB1F046C3F}" name="Item" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{30495E9F-BA0B-42AD-878A-751F64C0FB9C}" name="Definição" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{5715F9D4-D694-4063-91D7-2D9B5690668A}" name="Prioridade" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{94E622DD-91CD-4E27-85B7-DC3E5CB096F8}" name="Status" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C87D830-9A4C-4525-9B88-B343A6753889}" name="Table1" displayName="Table1" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E1048575" xr:uid="{2027FC26-B40F-4E27-9854-B90148E1CCB8}"/>
   <tableColumns count="5">
@@ -409,7 +497,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E2896D8C-7A28-4064-B901-12234F3C146E}" name="Table14" displayName="Table14" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E1048575" xr:uid="{8B1F751B-57C7-4794-A975-E4E322C91954}"/>
   <tableColumns count="5">
@@ -685,10 +773,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F30FB4-C429-474A-BC7A-638AE098B6F9}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81" style="5" customWidth="1"/>
+    <col min="3" max="3" width="125.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D5F1BC-F2D8-4DE2-A43D-B82F076D4E3B}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
@@ -1066,7 +1352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D375C30-D1D4-4511-9436-270B9C53123A}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -1376,7 +1662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD13F040-EBF9-477B-AA0A-6FE2BD7B9AE4}">
   <dimension ref="A1:E7"/>
   <sheetViews>
